--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:55:07+00:00</t>
+    <t>2023-02-21T16:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T16:28:41+00:00</t>
+    <t>2023-02-22T09:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T09:44:01+00:00</t>
+    <t>2023-02-24T13:00:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T13:00:27+00:00</t>
+    <t>2023-02-24T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:20:30+00:00</t>
+    <t>2023-02-24T16:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:22:39+00:00</t>
+    <t>2023-02-24T16:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:23:59+00:00</t>
+    <t>2023-02-27T11:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:21:32+00:00</t>
+    <t>2023-02-28T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:29+00:00</t>
+    <t>2023-02-28T09:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:18+00:00</t>
+    <t>2023-03-19T15:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:21:05+00:00</t>
+    <t>2023-03-19T15:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:22:13+00:00</t>
+    <t>2023-03-19T15:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:23:16+00:00</t>
+    <t>2023-03-19T15:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
+++ b/ig/main/StructureDefinition-ror-practitionerrole-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:07+00:00</t>
+    <t>2023-03-19T15:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
